--- a/Practica-2/Ex1/JacobiIteracions.xlsx
+++ b/Practica-2/Ex1/JacobiIteracions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Google Drive\UNI\CN\CN-Lab\Practica-2\Matlab\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Google Drive\UNI\CN\CN-Lab\Practica-2\Ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2DBAAEE3-5DB7-475F-9ED9-1C4AF4358145}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2AEE9882-8B6A-4DEE-B3A1-C4D40F3F101B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="10140" xr2:uid="{BE745780-8CF5-4297-8FD8-2FA8324165F9}"/>
   </bookViews>
@@ -242,79 +242,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>76</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>78</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,7 +1413,7 @@
         <v>6</v>
       </c>
       <c r="B1">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
